--- a/Project/EducationCompetition/Submission/한국빅데이터학회/Revision/심사자1_심사내용1_이현서.xlsx
+++ b/Project/EducationCompetition/Submission/한국빅데이터학회/Revision/심사자1_심사내용1_이현서.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\Project\EducationCompetition\Submission\한국빅데이터학회\Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B00AC04-D367-4B34-9BC3-3AC011EC0A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC51ED08-7229-42A2-8060-06FFA46622A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="161">
   <si>
     <t>저자 (연도)</t>
   </si>
@@ -422,13 +423,531 @@
   <si>
     <t>소프트웨어 교육을 기반으로 학습자의 자가진단 정형/비정형 데이터를 통하여 개인역량에 맞는 맞춤형 교육프로그램을 추천하는 시스템을 제안하여 학습자의 성취 만족성과 학습효과를 향상시킨 사례도 있다. 이러한 방향에서 본 연구가 기존 연구의 실증적 확장으로 볼 수 있다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자(연도)</t>
+  </si>
+  <si>
+    <t>본 연구와의 연계성</t>
+  </si>
+  <si>
+    <t>개인화 학습 추천 시스템 개발, 인간–AI 협업 방향 제시, XAI 필요성 강조</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">본 연구는 Zeng의 제언을 계승하여 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XAI 기반 학습 효과성 요인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 실증 분석함으로써 개인화 추천의 설명 가능성을 확장</t>
+    </r>
+  </si>
+  <si>
+    <t>AI가 평생학습 혁신·접근성 확대에 기여할 잠재력 강조</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">본 연구는 이러한 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI 기반 접근성 확대 논의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 실증 자료로 보완, 실제 참여자의 효과성과 만족 요인을 검증</t>
+    </r>
+  </si>
+  <si>
+    <t>성인 교육에서 추천시스템이 자기주도 학습을 촉진함을 실증</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">본 연구는 Digel의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>자기주도 학습 촉진 맥락</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">을 확장하여, 효과성 및 만족도를 포함한 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다차원적 결과 변수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 분석</t>
+    </r>
+  </si>
+  <si>
+    <t>EXAIT: 설명 가능한 수학 퀴즈 추천 도구, 학습 성취 향상 및 자기주도성 강화 검증</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">본 연구는 Majumdar가 제시한 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>설명된 추천 효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 평생학습 맥락으로 확장하여, 비형식학습자의 효과성 요인을 분석</t>
+    </r>
+  </si>
+  <si>
+    <t>유럽 공개 평생학습에서 AI 추천시스템 실증, 팬데믹 이후 재교육·재취업 연계</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">본 연구는 Tani의 논의와 유사하게 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>노동시장 변화 대응 전략</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에 주목, 한국 초고령사회 맥락에서 실증적 기여</t>
+    </r>
+  </si>
+  <si>
+    <t>정상현 외 (2023)</t>
+  </si>
+  <si>
+    <t>국내 원격대학 30만 건 데이터로 맞춤형 추천시스템 개발, 학습 빈도·만족도 향상 실증</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">본 연구는 정상현 사례를 바탕으로, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>비형식학습 효과성과 만족도 요인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 AI+XAI 기법으로 정량적 검증</t>
+    </r>
+  </si>
+  <si>
+    <t>김용우·우상미 (2024)</t>
+  </si>
+  <si>
+    <t>XAI 기반 학업 성취도 예측(AUC 95% 이상), 영향 요인 분석</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">본 연구는 김용우 사례의 연장선에서, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>평생학습 참여자의 만족·효과성 요인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 XAI로 규명함으로써 맥락 확대</t>
+    </r>
+  </si>
+  <si>
+    <t>소프트웨어 교육에서 자가진단 데이터 기반 맞춤형 교육 추천, 성취·만족 향상</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">본 연구는 박민수의 접근을 확장하여, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정형·비정형 데이터를 포함한 다양한 요인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 통합적으로 분석</t>
+    </r>
+  </si>
+  <si>
+    <t>HRD 현장에서 Learning Curation 시스템 적용, 학습 빈도·만족도 증가</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">본 연구는 기업 HRD 맥락을 넘어 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>성인 평생학습 전반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 분석을 확장, 효과성 요인에 대한 설명력 강화</t>
+    </r>
+  </si>
+  <si>
+    <t>사용자 친화적 XAI 설계(비교 기능·상황 인식 기능) → 추천 이해도·사용자 경험 개선</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">본 연구는 이들의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용자 경험 개선 논의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 기반으로, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참여자의 만족도를 정량적으로 예측·해석</t>
+    </r>
+  </si>
+  <si>
+    <t>DKT·XGBoost 기반 학습자 지식 상태 모델링, SHAP·LRP로 설명 제공</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">본 연구는 김성훈의 “교수자 중심 설명”을 넘어, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>성인 학습자의 자기효과성·만족 요인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>까지 설명 범위 확장</t>
+    </r>
+  </si>
+  <si>
+    <t>퍼지 논리 + lifelong learning 기반 XAI 시스템 제안, 다양한 도메인 확장성 강조</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">본 연구는 이들의 기술적 제언을 평생학습 맥락에 적용, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참여자의 지속적 효과성 분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 구체화</t>
+    </r>
+  </si>
+  <si>
+    <t>지식 그래프 기반 온톨로지 LOXER, 설명 가능한 추천 제공 및 의사결정 지원</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">본 연구는 Afreen의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>온톨로지 기반 설명 추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 논의와 연계, 실제 학습자의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>효과성·만족 데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 검증</t>
+    </r>
+  </si>
+  <si>
+    <t>AI 학습 시스템의 가능성과 위험(기술 격차, 인간 중심 부족) 동시 지적</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">본 연구는 이들의 문제 제기를 이어받아, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인간 중심적 학습 분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 XAI로 구현하여 참여 지속성 강화</t>
+    </r>
+  </si>
+  <si>
+    <t>맞춤형 추천 경험의 데이터 품질·윤리적 고려 강조</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">본 연구는 Errakha의 강조점을 반영해, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>데이터 기반 분석 + 윤리적 고려</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 정책적 활용과 연결</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +972,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -498,7 +1026,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -509,6 +1037,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1279,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7332A734-A5AF-465A-849E-AEA3E1CA4542}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1421,4 +1958,200 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4656640E-102F-4FDA-B896-C29214295EC7}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project/EducationCompetition/Submission/한국빅데이터학회/Revision/심사자1_심사내용1_이현서.xlsx
+++ b/Project/EducationCompetition/Submission/한국빅데이터학회/Revision/심사자1_심사내용1_이현서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\Project\EducationCompetition\Submission\한국빅데이터학회\Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC51ED08-7229-42A2-8060-06FFA46622A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39053328-CD71-4D1B-9216-7FA628F8EBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Human-Centered AI Systems (Utrecht Univ.)</t>
   </si>
   <si>
-    <t>Book: Artificial Intelligence and Lifelong Learning</t>
-  </si>
-  <si>
     <t>ACM Conference</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Supporting Personalized Lifelong Learning with Human-Centered AI Systems</t>
   </si>
   <si>
-    <t>Transforming Education for the Future</t>
-  </si>
-  <si>
     <t>Learner-centered ontology for explainable educational recommendation</t>
   </si>
   <si>
@@ -166,9 +160,6 @@
   </si>
   <si>
     <t>대학생의 학업성취 예측 및 해석을 위한 설명가능한 인공지능(XAI) 기법 적용</t>
-  </si>
-  <si>
-    <t>학습자의 데이터를 활용한 커리큘럼 추천 시스템 설계</t>
   </si>
   <si>
     <t>Operationalizing human-centered design principles increases trust and usability in XAI-driven recommendations.</t>
@@ -941,6 +932,18 @@
       </rPr>
       <t>를 정책적 활용과 연결</t>
     </r>
+  </si>
+  <si>
+    <t>Transforming Education for the Future</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book: Artificial Intelligence and Lifelong Learning</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습자의 데이터를 활용한 커리큘럼 추천 시스템 설계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1354,9 +1357,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1386,10 +1389,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1407,22 +1410,22 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1430,25 +1433,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">
@@ -1456,25 +1459,25 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="87" x14ac:dyDescent="0.4">
@@ -1482,25 +1485,25 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
@@ -1508,51 +1511,51 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.4">
@@ -1560,25 +1563,25 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">
@@ -1586,25 +1589,25 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1612,25 +1615,25 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.4">
@@ -1641,22 +1644,22 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="87" x14ac:dyDescent="0.4">
@@ -1664,25 +1667,25 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1690,25 +1693,25 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="104.4" x14ac:dyDescent="0.4">
@@ -1716,25 +1719,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="87" x14ac:dyDescent="0.4">
@@ -1745,22 +1748,22 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">
@@ -1771,22 +1774,22 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1839,7 +1842,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1847,7 +1850,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52.2" x14ac:dyDescent="0.4">
@@ -1855,7 +1858,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="87" x14ac:dyDescent="0.4">
@@ -1863,7 +1866,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="139.19999999999999" x14ac:dyDescent="0.4">
@@ -1871,15 +1874,15 @@
         <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="87" x14ac:dyDescent="0.4">
@@ -1887,7 +1890,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="52.2" x14ac:dyDescent="0.4">
@@ -1895,7 +1898,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1903,7 +1906,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="87" x14ac:dyDescent="0.4">
@@ -1911,7 +1914,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="87" x14ac:dyDescent="0.4">
@@ -1919,7 +1922,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1927,7 +1930,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="104.4" x14ac:dyDescent="0.4">
@@ -1935,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="87" x14ac:dyDescent="0.4">
@@ -1943,7 +1946,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="52.2" x14ac:dyDescent="0.4">
@@ -1951,7 +1954,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1964,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4656640E-102F-4FDA-B896-C29214295EC7}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1976,13 +1979,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -1990,10 +1993,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
@@ -2001,10 +2004,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -2012,10 +2015,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -2023,10 +2026,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
@@ -2034,32 +2037,32 @@
         <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
@@ -2067,10 +2070,10 @@
         <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
@@ -2078,10 +2081,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
@@ -2089,10 +2092,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
@@ -2100,10 +2103,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
@@ -2111,10 +2114,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
@@ -2122,10 +2125,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
@@ -2133,10 +2136,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
@@ -2144,10 +2147,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
